--- a/public/template/product_type.xlsx
+++ b/public/template/product_type.xlsx
@@ -32,7 +32,7 @@
     <t>分类名称</t>
   </si>
   <si>
-    <t>所有分类/皮肤项目/激光紧肤/妊娠纹</t>
+    <t>项目分类/皮肤项目/激光紧肤/妊娠纹</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
